--- a/data/mullion_profile_db.xlsx
+++ b/data/mullion_profile_db.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasettigbr-my.sharepoint.com/personal/amccrone_thorntontomasetti_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{CC3D2C06-4AE5-4B99-BB4B-2AEAF2C44205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CCA581C-97E9-4676-B184-023662C4A07E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{CC3D2C06-4AE5-4B99-BB4B-2AEAF2C44205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE8DE3A-F644-437D-8674-499E9E6EA9F9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{817DAA18-59E9-4F63-8B15-EBAD7CAC4AB6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{817DAA18-59E9-4F63-8B15-EBAD7CAC4AB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alu Mullion Database" sheetId="5" r:id="rId1"/>
-    <sheet name="Steel Mullion Database" sheetId="6" r:id="rId2"/>
+    <sheet name="aluminium" sheetId="5" r:id="rId1"/>
+    <sheet name="steel" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -964,7 +964,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1021,8 +1021,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FD9B6-32E2-45C0-A3B8-D17061D9FEF4}">
   <dimension ref="A1:Q225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3171,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E265B9E-92AB-45B6-8010-F3CA46DEE7E1}">
   <dimension ref="A1:Q225"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
